--- a/AutoFuel.xlsx
+++ b/AutoFuel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="0" windowWidth="16545" windowHeight="11610"/>
+    <workbookView xWindow="3780" yWindow="0" windowWidth="16545" windowHeight="11610"/>
   </bookViews>
   <sheets>
     <sheet name="YOUR CAR MAKE MODEL YEAR HERE" sheetId="1" r:id="rId1"/>
@@ -423,7 +423,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -444,11 +446,11 @@
       </c>
       <c r="C1" s="3">
         <f>D1/B1</f>
-        <v>40.571428571428569</v>
+        <v>40.714285714285715</v>
       </c>
       <c r="D1" s="2">
         <f>SUM(D3:D1048576)</f>
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E1" s="4">
         <f>SUM(E3:E1048576)</f>
@@ -456,7 +458,7 @@
       </c>
       <c r="F1" s="4">
         <f>D1/E1</f>
-        <v>16.510667984419509</v>
+        <v>16.568804139294226</v>
       </c>
       <c r="G1" s="5">
         <f>H1/E1</f>
@@ -531,18 +533,18 @@
         <v>7</v>
       </c>
       <c r="C4" s="13">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" ref="D4" si="1">C4-C3</f>
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E4" s="17">
         <v>17.201000000000001</v>
       </c>
       <c r="F4" s="4">
         <f t="shared" ref="F4" si="2">D4/E4</f>
-        <v>16.510667984419509</v>
+        <v>16.568804139294226</v>
       </c>
       <c r="G4" s="18">
         <v>3.4590000000000001</v>
